--- a/Code/Results/Cases/Case_1_166/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_166/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9616665728448598</v>
+        <v>1.011247580710721</v>
       </c>
       <c r="D2">
-        <v>1.028221384393299</v>
+        <v>1.028009207662965</v>
       </c>
       <c r="E2">
-        <v>0.9731742991823528</v>
+        <v>1.013424178737686</v>
       </c>
       <c r="F2">
-        <v>0.9791168484240712</v>
+        <v>1.0251154594127</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045015506529082</v>
+        <v>1.029811799039262</v>
       </c>
       <c r="J2">
-        <v>0.9850575699645022</v>
+        <v>1.016497153369578</v>
       </c>
       <c r="K2">
-        <v>1.039301067810134</v>
+        <v>1.030827272708938</v>
       </c>
       <c r="L2">
-        <v>0.9850204565739392</v>
+        <v>1.016285372698983</v>
       </c>
       <c r="M2">
-        <v>0.9908749948436505</v>
+        <v>1.02794197529134</v>
       </c>
       <c r="N2">
-        <v>0.9864564647015343</v>
+        <v>1.017940695921216</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.967550686915986</v>
+        <v>1.012462214098829</v>
       </c>
       <c r="D3">
-        <v>1.030072278512384</v>
+        <v>1.028385681852181</v>
       </c>
       <c r="E3">
-        <v>0.9779461553182018</v>
+        <v>1.014462673929747</v>
       </c>
       <c r="F3">
-        <v>0.9853793945582018</v>
+        <v>1.026451009472275</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045595056895036</v>
+        <v>1.029860433180001</v>
       </c>
       <c r="J3">
-        <v>0.9889668156067069</v>
+        <v>1.017343547348405</v>
       </c>
       <c r="K3">
-        <v>1.040334311527975</v>
+        <v>1.031012757685353</v>
       </c>
       <c r="L3">
-        <v>0.9888692191739993</v>
+        <v>1.017127943177975</v>
       </c>
       <c r="M3">
-        <v>0.9962028312018855</v>
+        <v>1.029083325371322</v>
       </c>
       <c r="N3">
-        <v>0.9903712619209476</v>
+        <v>1.018788291876576</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9712623672644476</v>
+        <v>1.013248101984948</v>
       </c>
       <c r="D4">
-        <v>1.031246468899795</v>
+        <v>1.028629008135119</v>
       </c>
       <c r="E4">
-        <v>0.9809633775106893</v>
+        <v>1.01513491281257</v>
       </c>
       <c r="F4">
-        <v>0.9893288511368843</v>
+        <v>1.027314502582981</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045949199769818</v>
+        <v>1.029890287381812</v>
       </c>
       <c r="J4">
-        <v>0.9914308893320269</v>
+        <v>1.017890722470564</v>
       </c>
       <c r="K4">
-        <v>1.040981853964551</v>
+        <v>1.031131757354537</v>
       </c>
       <c r="L4">
-        <v>0.9912971206648298</v>
+        <v>1.017672814189411</v>
       </c>
       <c r="M4">
-        <v>0.9995577969329705</v>
+        <v>1.029820632288004</v>
       </c>
       <c r="N4">
-        <v>0.9928388349135912</v>
+        <v>1.01933624405017</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9728009483029499</v>
+        <v>1.013578477192167</v>
       </c>
       <c r="D5">
-        <v>1.031734588521111</v>
+        <v>1.028731234194849</v>
       </c>
       <c r="E5">
-        <v>0.9822157243779895</v>
+        <v>1.015417586367324</v>
       </c>
       <c r="F5">
-        <v>0.9909657111486794</v>
+        <v>1.027677350816842</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046093165671235</v>
+        <v>1.02990245080704</v>
       </c>
       <c r="J5">
-        <v>0.9924518116081364</v>
+        <v>1.018120637062317</v>
       </c>
       <c r="K5">
-        <v>1.041249128714164</v>
+        <v>1.031181539131005</v>
       </c>
       <c r="L5">
-        <v>0.992303512944543</v>
+        <v>1.017901800633994</v>
       </c>
       <c r="M5">
-        <v>1.000947036968513</v>
+        <v>1.030130305448863</v>
       </c>
       <c r="N5">
-        <v>0.9938612070164338</v>
+        <v>1.019566485147015</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9730580347576974</v>
+        <v>1.013633948010818</v>
       </c>
       <c r="D6">
-        <v>1.031816225831712</v>
+        <v>1.028748394340917</v>
       </c>
       <c r="E6">
-        <v>0.9824250769607328</v>
+        <v>1.015465052312513</v>
       </c>
       <c r="F6">
-        <v>0.9912392008899609</v>
+        <v>1.02773826507482</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04611705211798</v>
+        <v>1.029904470372765</v>
       </c>
       <c r="J6">
-        <v>0.99262237029338</v>
+        <v>1.018159233867412</v>
       </c>
       <c r="K6">
-        <v>1.041293717261258</v>
+        <v>1.031189883270182</v>
       </c>
       <c r="L6">
-        <v>0.9924716707607903</v>
+        <v>1.017940243968708</v>
       </c>
       <c r="M6">
-        <v>1.001179080643295</v>
+        <v>1.030182283951165</v>
       </c>
       <c r="N6">
-        <v>0.9940320079145737</v>
+        <v>1.019605136764001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9712830101443286</v>
+        <v>1.013252516518816</v>
       </c>
       <c r="D7">
-        <v>1.031253012690861</v>
+        <v>1.028630374355475</v>
       </c>
       <c r="E7">
-        <v>0.9809801736710581</v>
+        <v>1.015138689656</v>
       </c>
       <c r="F7">
-        <v>0.9893508138136613</v>
+        <v>1.027319351621112</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045951142663341</v>
+        <v>1.029890451432565</v>
       </c>
       <c r="J7">
-        <v>0.9914445888943164</v>
+        <v>1.017893795061747</v>
       </c>
       <c r="K7">
-        <v>1.040985444653517</v>
+        <v>1.031132423507885</v>
       </c>
       <c r="L7">
-        <v>0.9913106234587057</v>
+        <v>1.017675874219735</v>
       </c>
       <c r="M7">
-        <v>0.9995764420608437</v>
+        <v>1.029824771295508</v>
       </c>
       <c r="N7">
-        <v>0.9928525539308303</v>
+        <v>1.019339321004785</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9636756525025287</v>
+        <v>1.011658085960854</v>
       </c>
       <c r="D8">
-        <v>1.028851827019421</v>
+        <v>1.028136495279595</v>
       </c>
       <c r="E8">
-        <v>0.9748020528922285</v>
+        <v>1.01377508939948</v>
       </c>
       <c r="F8">
-        <v>0.9812553000808169</v>
+        <v>1.025566960719816</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045215738151851</v>
+        <v>1.029828569302794</v>
       </c>
       <c r="J8">
-        <v>0.9863927103179688</v>
+        <v>1.016783300264107</v>
       </c>
       <c r="K8">
-        <v>1.039654665141719</v>
+        <v>1.03089016905827</v>
       </c>
       <c r="L8">
-        <v>0.9863345219850321</v>
+        <v>1.016570192123274</v>
       </c>
       <c r="M8">
-        <v>0.9926953128368872</v>
+        <v>1.028327954371427</v>
       </c>
       <c r="N8">
-        <v>0.9877935011074455</v>
+        <v>1.018227249177157</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9494830563078586</v>
+        <v>1.008847911892502</v>
       </c>
       <c r="D9">
-        <v>1.024435793378621</v>
+        <v>1.027264170815833</v>
       </c>
       <c r="E9">
-        <v>0.9633374776720501</v>
+        <v>1.01137420513929</v>
       </c>
       <c r="F9">
-        <v>0.9661473921141693</v>
+        <v>1.022473567584923</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043756172278189</v>
+        <v>1.02970717824176</v>
       </c>
       <c r="J9">
-        <v>0.9769551007519555</v>
+        <v>1.014822582809363</v>
       </c>
       <c r="K9">
-        <v>1.037144478123263</v>
+        <v>1.030455511838382</v>
       </c>
       <c r="L9">
-        <v>0.9770547712588252</v>
+        <v>1.014619265125886</v>
       </c>
       <c r="M9">
-        <v>0.9798146693177832</v>
+        <v>1.02568091103078</v>
       </c>
       <c r="N9">
-        <v>0.9783424890533395</v>
+        <v>1.01626374727873</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9394083682389258</v>
+        <v>1.006973906831952</v>
       </c>
       <c r="D10">
-        <v>1.021359707885053</v>
+        <v>1.026681353410436</v>
       </c>
       <c r="E10">
-        <v>0.9552474386811899</v>
+        <v>1.009774841449518</v>
       </c>
       <c r="F10">
-        <v>0.9554242696603686</v>
+        <v>1.020407469441405</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042667081978943</v>
+        <v>1.029617982363476</v>
       </c>
       <c r="J10">
-        <v>0.9702508178464024</v>
+        <v>1.013512731437356</v>
       </c>
       <c r="K10">
-        <v>1.035353726240006</v>
+        <v>1.030160580180597</v>
       </c>
       <c r="L10">
-        <v>0.9704746260059677</v>
+        <v>1.013316832849115</v>
       </c>
       <c r="M10">
-        <v>0.9706478585438209</v>
+        <v>1.023909719252517</v>
       </c>
       <c r="N10">
-        <v>0.9716286852970687</v>
+        <v>1.014952035767532</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9348793052955622</v>
+        <v>1.006162273272842</v>
       </c>
       <c r="D11">
-        <v>1.019994474886937</v>
+        <v>1.026428709113369</v>
       </c>
       <c r="E11">
-        <v>0.9516235698406196</v>
+        <v>1.009082569826139</v>
       </c>
       <c r="F11">
-        <v>0.950605078853357</v>
+        <v>1.019511878098101</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042166449373453</v>
+        <v>1.029577405125989</v>
       </c>
       <c r="J11">
-        <v>0.9672366357565444</v>
+        <v>1.012944887639038</v>
       </c>
       <c r="K11">
-        <v>1.034548924859877</v>
+        <v>1.030031661521243</v>
       </c>
       <c r="L11">
-        <v>0.9675193370953293</v>
+        <v>1.01275241572005</v>
       </c>
       <c r="M11">
-        <v>0.9665227628332413</v>
+        <v>1.023141201772315</v>
       </c>
       <c r="N11">
-        <v>0.9686102227229111</v>
+        <v>1.014383385565888</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9331699329434174</v>
+        <v>1.005860766583414</v>
       </c>
       <c r="D12">
-        <v>1.019482186881925</v>
+        <v>1.026334825467372</v>
       </c>
       <c r="E12">
-        <v>0.9502579377177347</v>
+        <v>1.00882546706854</v>
       </c>
       <c r="F12">
-        <v>0.9487865094040471</v>
+        <v>1.0191790683791</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041975982190378</v>
+        <v>1.02956203975037</v>
       </c>
       <c r="J12">
-        <v>0.9660990552576668</v>
+        <v>1.012733862629327</v>
       </c>
       <c r="K12">
-        <v>1.034245420878342</v>
+        <v>1.029983594512264</v>
       </c>
       <c r="L12">
-        <v>0.9664044685902347</v>
+        <v>1.012542695918734</v>
       </c>
       <c r="M12">
-        <v>0.9649653584940686</v>
+        <v>1.022855500021797</v>
       </c>
       <c r="N12">
-        <v>0.9674710267292433</v>
+        <v>1.014172060876458</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9335378595389192</v>
+        <v>1.005925442194816</v>
       </c>
       <c r="D13">
-        <v>1.019592311880099</v>
+        <v>1.026354965622651</v>
       </c>
       <c r="E13">
-        <v>0.9505517801424198</v>
+        <v>1.008880614804119</v>
       </c>
       <c r="F13">
-        <v>0.9491779243177957</v>
+        <v>1.019250463910383</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042017044633794</v>
+        <v>1.029565348934628</v>
       </c>
       <c r="J13">
-        <v>0.9663439056831479</v>
+        <v>1.01277913288184</v>
       </c>
       <c r="K13">
-        <v>1.034310732630463</v>
+        <v>1.029993913216344</v>
       </c>
       <c r="L13">
-        <v>0.9666444082513137</v>
+        <v>1.012587684730376</v>
       </c>
       <c r="M13">
-        <v>0.9653005957429109</v>
+        <v>1.022916794929088</v>
       </c>
       <c r="N13">
-        <v>0.9677162248704135</v>
+        <v>1.014217395417922</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9347385729705486</v>
+        <v>1.00613735126358</v>
       </c>
       <c r="D14">
-        <v>1.019952235770879</v>
+        <v>1.026420949473536</v>
       </c>
       <c r="E14">
-        <v>0.9515110940945097</v>
+        <v>1.009061316872573</v>
       </c>
       <c r="F14">
-        <v>0.9504553496014969</v>
+        <v>1.019484370965883</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042150798193058</v>
+        <v>1.029576140997166</v>
       </c>
       <c r="J14">
-        <v>0.9671429776187442</v>
+        <v>1.012927446349013</v>
       </c>
       <c r="K14">
-        <v>1.034523931159918</v>
+        <v>1.030027691970798</v>
       </c>
       <c r="L14">
-        <v>0.9674275388766784</v>
+        <v>1.012735081656939</v>
       </c>
       <c r="M14">
-        <v>0.9663945513594544</v>
+        <v>1.023117590491535</v>
       </c>
       <c r="N14">
-        <v>0.9685164315798132</v>
+        <v>1.014365919507231</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9354747195129589</v>
+        <v>1.006267911382106</v>
       </c>
       <c r="D15">
-        <v>1.020173304700516</v>
+        <v>1.026461599015739</v>
       </c>
       <c r="E15">
-        <v>0.9520995216574593</v>
+        <v>1.009172658327858</v>
       </c>
       <c r="F15">
-        <v>0.951238570474464</v>
+        <v>1.019628469212649</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042232605956264</v>
+        <v>1.029582751508626</v>
       </c>
       <c r="J15">
-        <v>0.9676328893806149</v>
+        <v>1.013018813525018</v>
       </c>
       <c r="K15">
-        <v>1.034654680222857</v>
+        <v>1.030048480240978</v>
       </c>
       <c r="L15">
-        <v>0.9679077415563849</v>
+        <v>1.012825888420619</v>
       </c>
       <c r="M15">
-        <v>0.9670651839850963</v>
+        <v>1.023241275359705</v>
       </c>
       <c r="N15">
-        <v>0.9690070390725789</v>
+        <v>1.014457416435105</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9397052668802856</v>
+        <v>1.007027768271366</v>
       </c>
       <c r="D16">
-        <v>1.021449597846458</v>
+        <v>1.026698114827572</v>
       </c>
       <c r="E16">
-        <v>0.9554852799018683</v>
+        <v>1.009820790631153</v>
       </c>
       <c r="F16">
-        <v>0.9557402239421191</v>
+        <v>1.020466886431473</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042699683184573</v>
+        <v>1.029620634198533</v>
       </c>
       <c r="J16">
-        <v>0.970448410864449</v>
+        <v>1.013550403087732</v>
       </c>
       <c r="K16">
-        <v>1.035406506576743</v>
+        <v>1.030169110661264</v>
       </c>
       <c r="L16">
-        <v>0.9706684240875852</v>
+        <v>1.013354281613189</v>
       </c>
       <c r="M16">
-        <v>0.9709181995292949</v>
+        <v>1.023960689704411</v>
       </c>
       <c r="N16">
-        <v>0.9718265589198651</v>
+        <v>1.014989760915973</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9423129864312593</v>
+        <v>1.007504356738725</v>
       </c>
       <c r="D17">
-        <v>1.022241152759162</v>
+        <v>1.026846401148775</v>
       </c>
       <c r="E17">
-        <v>0.9575757747207754</v>
+        <v>1.010227416135606</v>
       </c>
       <c r="F17">
-        <v>0.9585154797935697</v>
+        <v>1.020992544728224</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042984792799494</v>
+        <v>1.02964387400521</v>
       </c>
       <c r="J17">
-        <v>0.9721838870706533</v>
+        <v>1.013883674552005</v>
       </c>
       <c r="K17">
-        <v>1.035870137067215</v>
+        <v>1.030244455419853</v>
       </c>
       <c r="L17">
-        <v>0.9723709205178477</v>
+        <v>1.013685605566608</v>
       </c>
       <c r="M17">
-        <v>0.973292200517355</v>
+        <v>1.024411534399127</v>
       </c>
       <c r="N17">
-        <v>0.973564499701344</v>
+        <v>1.015323505663952</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9438180938915229</v>
+        <v>1.007782325871752</v>
       </c>
       <c r="D18">
-        <v>1.022699656567971</v>
+        <v>1.026932866863317</v>
       </c>
       <c r="E18">
-        <v>0.9587835695851984</v>
+        <v>1.010464619452835</v>
       </c>
       <c r="F18">
-        <v>0.9601174078739163</v>
+        <v>1.02129906019447</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043148300165976</v>
+        <v>1.029657240744564</v>
       </c>
       <c r="J18">
-        <v>0.973185526296747</v>
+        <v>1.014078001693758</v>
       </c>
       <c r="K18">
-        <v>1.036137739565898</v>
+        <v>1.030288285796009</v>
       </c>
       <c r="L18">
-        <v>0.9733538144921289</v>
+        <v>1.013878817406158</v>
       </c>
       <c r="M18">
-        <v>0.9746620098047239</v>
+        <v>1.024674352249912</v>
       </c>
       <c r="N18">
-        <v>0.9745675613700284</v>
+        <v>1.015518108772535</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9443286528407948</v>
+        <v>1.007877103401476</v>
       </c>
       <c r="D19">
-        <v>1.022855457548769</v>
+        <v>1.026962344769694</v>
       </c>
       <c r="E19">
-        <v>0.9591934769896463</v>
+        <v>1.010545504040892</v>
       </c>
       <c r="F19">
-        <v>0.9606608281757519</v>
+        <v>1.021403558523707</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043203582522981</v>
+        <v>1.029661766443858</v>
       </c>
       <c r="J19">
-        <v>0.9735252921354524</v>
+        <v>1.0141442513515</v>
       </c>
       <c r="K19">
-        <v>1.036228510169859</v>
+        <v>1.030303210951503</v>
       </c>
       <c r="L19">
-        <v>0.9736872701914286</v>
+        <v>1.013944690270353</v>
       </c>
       <c r="M19">
-        <v>0.9751266014093207</v>
+        <v>1.024763940607988</v>
       </c>
       <c r="N19">
-        <v>0.9749078097151964</v>
+        <v>1.015584452512391</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9420348646847875</v>
+        <v>1.007453225074932</v>
       </c>
       <c r="D20">
-        <v>1.02215655832903</v>
+        <v>1.02683049422893</v>
       </c>
       <c r="E20">
-        <v>0.9573526893861278</v>
+        <v>1.010183786439702</v>
       </c>
       <c r="F20">
-        <v>0.9582194763091346</v>
+        <v>1.020936156122776</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042954493057131</v>
+        <v>1.029641400102964</v>
       </c>
       <c r="J20">
-        <v>0.9719987956825261</v>
+        <v>1.013847924360864</v>
       </c>
       <c r="K20">
-        <v>1.035820687170619</v>
+        <v>1.030236383728821</v>
       </c>
       <c r="L20">
-        <v>0.9721893162917143</v>
+        <v>1.013650062187632</v>
       </c>
       <c r="M20">
-        <v>0.9730390464800175</v>
+        <v>1.024363178797766</v>
       </c>
       <c r="N20">
-        <v>0.9733791454622154</v>
+        <v>1.015287704703439</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.934385757718183</v>
+        <v>1.006074950174649</v>
       </c>
       <c r="D21">
-        <v>1.019846391678738</v>
+        <v>1.026401519971977</v>
       </c>
       <c r="E21">
-        <v>0.9512291522462089</v>
+        <v>1.009008103590018</v>
       </c>
       <c r="F21">
-        <v>0.9500799843283664</v>
+        <v>1.019415495259401</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042111536844369</v>
+        <v>1.029572971092956</v>
       </c>
       <c r="J21">
-        <v>0.9669081780793144</v>
+        <v>1.012883774575872</v>
       </c>
       <c r="K21">
-        <v>1.034461276787446</v>
+        <v>1.030017749953829</v>
       </c>
       <c r="L21">
-        <v>0.9671974100122996</v>
+        <v>1.012691678886274</v>
       </c>
       <c r="M21">
-        <v>0.9660731182487556</v>
+        <v>1.0230584678547</v>
       </c>
       <c r="N21">
-        <v>0.9682812985981053</v>
+        <v>1.014322185715162</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9294186263465305</v>
+        <v>1.00520819973406</v>
       </c>
       <c r="D22">
-        <v>1.01836382826582</v>
+        <v>1.026131574537345</v>
       </c>
       <c r="E22">
-        <v>0.947265027780446</v>
+        <v>1.008269122599374</v>
       </c>
       <c r="F22">
-        <v>0.944796237168041</v>
+        <v>1.018458541962556</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041555360293718</v>
+        <v>1.02952825104067</v>
       </c>
       <c r="J22">
-        <v>0.9636027493308422</v>
+        <v>1.012276981102651</v>
       </c>
       <c r="K22">
-        <v>1.033580065885348</v>
+        <v>1.029879240253532</v>
       </c>
       <c r="L22">
-        <v>0.9639589220202299</v>
+        <v>1.012088698541257</v>
       </c>
       <c r="M22">
-        <v>0.9615467843697114</v>
+        <v>1.022236753526111</v>
       </c>
       <c r="N22">
-        <v>0.964971175761672</v>
+        <v>1.013714530525609</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9320674975919014</v>
+        <v>1.005667698154082</v>
       </c>
       <c r="D23">
-        <v>1.019152678363334</v>
+        <v>1.026274699128386</v>
       </c>
       <c r="E23">
-        <v>0.949377803815204</v>
+        <v>1.008660850402709</v>
       </c>
       <c r="F23">
-        <v>0.9476137472994808</v>
+        <v>1.018965923052155</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041852733869583</v>
+        <v>1.029552118580874</v>
       </c>
       <c r="J23">
-        <v>0.965365411482353</v>
+        <v>1.012598710785068</v>
       </c>
       <c r="K23">
-        <v>1.034049777451768</v>
+        <v>1.029952765645281</v>
       </c>
       <c r="L23">
-        <v>0.9656856118347413</v>
+        <v>1.012408388965879</v>
       </c>
       <c r="M23">
-        <v>0.963960808995823</v>
+        <v>1.02267249260813</v>
       </c>
       <c r="N23">
-        <v>0.9667363410956185</v>
+        <v>1.014036717101078</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9421605850117859</v>
+        <v>1.00747632932486</v>
       </c>
       <c r="D24">
-        <v>1.022194792776963</v>
+        <v>1.026837681965616</v>
       </c>
       <c r="E24">
-        <v>0.9574535276516168</v>
+        <v>1.010203500742382</v>
       </c>
       <c r="F24">
-        <v>0.9583532794047909</v>
+        <v>1.020961635990909</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042968192824665</v>
+        <v>1.029642518535893</v>
       </c>
       <c r="J24">
-        <v>0.9720824632837168</v>
+        <v>1.013864078532558</v>
       </c>
       <c r="K24">
-        <v>1.035843040170754</v>
+        <v>1.030240031340096</v>
       </c>
       <c r="L24">
-        <v>0.9722714066810624</v>
+        <v>1.013666122846035</v>
       </c>
       <c r="M24">
-        <v>0.9731534818249522</v>
+        <v>1.024385029082883</v>
       </c>
       <c r="N24">
-        <v>0.9734629318809965</v>
+        <v>1.01530388181591</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9532536157757523</v>
+        <v>1.009574495204962</v>
       </c>
       <c r="D25">
-        <v>1.02560011274041</v>
+        <v>1.027489918915731</v>
       </c>
       <c r="E25">
-        <v>0.9663755214696268</v>
+        <v>1.011994668757404</v>
       </c>
       <c r="F25">
-        <v>0.9701612291462595</v>
+        <v>1.023273947664625</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044153485627624</v>
+        <v>1.029740020505447</v>
       </c>
       <c r="J25">
-        <v>0.9794635179422176</v>
+        <v>1.015329945290461</v>
       </c>
       <c r="K25">
-        <v>1.037813605442289</v>
+        <v>1.030568795504558</v>
       </c>
       <c r="L25">
-        <v>0.9795192499426383</v>
+        <v>1.015123940135079</v>
       </c>
       <c r="M25">
-        <v>0.9832411161808695</v>
+        <v>1.026366370212686</v>
       </c>
       <c r="N25">
-        <v>0.9808544684837315</v>
+        <v>1.016771830272745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_166/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_166/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011247580710721</v>
+        <v>0.9616665728448595</v>
       </c>
       <c r="D2">
-        <v>1.028009207662965</v>
+        <v>1.028221384393299</v>
       </c>
       <c r="E2">
-        <v>1.013424178737686</v>
+        <v>0.9731742991823522</v>
       </c>
       <c r="F2">
-        <v>1.0251154594127</v>
+        <v>0.9791168484240713</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029811799039262</v>
+        <v>1.045015506529082</v>
       </c>
       <c r="J2">
-        <v>1.016497153369578</v>
+        <v>0.985057569964502</v>
       </c>
       <c r="K2">
-        <v>1.030827272708938</v>
+        <v>1.039301067810134</v>
       </c>
       <c r="L2">
-        <v>1.016285372698983</v>
+        <v>0.9850204565739386</v>
       </c>
       <c r="M2">
-        <v>1.02794197529134</v>
+        <v>0.9908749948436503</v>
       </c>
       <c r="N2">
-        <v>1.017940695921216</v>
+        <v>0.9864564647015341</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012462214098829</v>
+        <v>0.9675506869159867</v>
       </c>
       <c r="D3">
-        <v>1.028385681852181</v>
+        <v>1.030072278512384</v>
       </c>
       <c r="E3">
-        <v>1.014462673929747</v>
+        <v>0.9779461553182024</v>
       </c>
       <c r="F3">
-        <v>1.026451009472275</v>
+        <v>0.9853793945582023</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029860433180001</v>
+        <v>1.045595056895036</v>
       </c>
       <c r="J3">
-        <v>1.017343547348405</v>
+        <v>0.9889668156067075</v>
       </c>
       <c r="K3">
-        <v>1.031012757685353</v>
+        <v>1.040334311527975</v>
       </c>
       <c r="L3">
-        <v>1.017127943177975</v>
+        <v>0.9888692191739998</v>
       </c>
       <c r="M3">
-        <v>1.029083325371322</v>
+        <v>0.996202831201886</v>
       </c>
       <c r="N3">
-        <v>1.018788291876576</v>
+        <v>0.9903712619209484</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013248101984948</v>
+        <v>0.971262367264447</v>
       </c>
       <c r="D4">
-        <v>1.028629008135119</v>
+        <v>1.031246468899796</v>
       </c>
       <c r="E4">
-        <v>1.01513491281257</v>
+        <v>0.9809633775106887</v>
       </c>
       <c r="F4">
-        <v>1.027314502582981</v>
+        <v>0.9893288511368842</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029890287381812</v>
+        <v>1.045949199769818</v>
       </c>
       <c r="J4">
-        <v>1.017890722470564</v>
+        <v>0.9914308893320265</v>
       </c>
       <c r="K4">
-        <v>1.031131757354537</v>
+        <v>1.040981853964551</v>
       </c>
       <c r="L4">
-        <v>1.017672814189411</v>
+        <v>0.9912971206648292</v>
       </c>
       <c r="M4">
-        <v>1.029820632288004</v>
+        <v>0.9995577969329703</v>
       </c>
       <c r="N4">
-        <v>1.01933624405017</v>
+        <v>0.9928388349135906</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013578477192167</v>
+        <v>0.9728009483029504</v>
       </c>
       <c r="D5">
-        <v>1.028731234194849</v>
+        <v>1.031734588521111</v>
       </c>
       <c r="E5">
-        <v>1.015417586367324</v>
+        <v>0.98221572437799</v>
       </c>
       <c r="F5">
-        <v>1.027677350816842</v>
+        <v>0.9909657111486795</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.02990245080704</v>
+        <v>1.046093165671235</v>
       </c>
       <c r="J5">
-        <v>1.018120637062317</v>
+        <v>0.9924518116081369</v>
       </c>
       <c r="K5">
-        <v>1.031181539131005</v>
+        <v>1.041249128714164</v>
       </c>
       <c r="L5">
-        <v>1.017901800633994</v>
+        <v>0.9923035129445434</v>
       </c>
       <c r="M5">
-        <v>1.030130305448863</v>
+        <v>1.000947036968513</v>
       </c>
       <c r="N5">
-        <v>1.019566485147015</v>
+        <v>0.9938612070164342</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013633948010818</v>
+        <v>0.9730580347576969</v>
       </c>
       <c r="D6">
-        <v>1.028748394340917</v>
+        <v>1.031816225831712</v>
       </c>
       <c r="E6">
-        <v>1.015465052312513</v>
+        <v>0.9824250769607322</v>
       </c>
       <c r="F6">
-        <v>1.02773826507482</v>
+        <v>0.9912392008899604</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029904470372765</v>
+        <v>1.04611705211798</v>
       </c>
       <c r="J6">
-        <v>1.018159233867412</v>
+        <v>0.9926223702933794</v>
       </c>
       <c r="K6">
-        <v>1.031189883270182</v>
+        <v>1.041293717261258</v>
       </c>
       <c r="L6">
-        <v>1.017940243968708</v>
+        <v>0.9924716707607899</v>
       </c>
       <c r="M6">
-        <v>1.030182283951165</v>
+        <v>1.001179080643294</v>
       </c>
       <c r="N6">
-        <v>1.019605136764001</v>
+        <v>0.9940320079145734</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013252516518816</v>
+        <v>0.9712830101443288</v>
       </c>
       <c r="D7">
-        <v>1.028630374355475</v>
+        <v>1.03125301269086</v>
       </c>
       <c r="E7">
-        <v>1.015138689656</v>
+        <v>0.9809801736710579</v>
       </c>
       <c r="F7">
-        <v>1.027319351621112</v>
+        <v>0.9893508138136611</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029890451432565</v>
+        <v>1.045951142663341</v>
       </c>
       <c r="J7">
-        <v>1.017893795061747</v>
+        <v>0.9914445888943164</v>
       </c>
       <c r="K7">
-        <v>1.031132423507885</v>
+        <v>1.040985444653517</v>
       </c>
       <c r="L7">
-        <v>1.017675874219735</v>
+        <v>0.9913106234587057</v>
       </c>
       <c r="M7">
-        <v>1.029824771295508</v>
+        <v>0.9995764420608435</v>
       </c>
       <c r="N7">
-        <v>1.019339321004785</v>
+        <v>0.9928525539308302</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011658085960854</v>
+        <v>0.9636756525025282</v>
       </c>
       <c r="D8">
-        <v>1.028136495279595</v>
+        <v>1.028851827019421</v>
       </c>
       <c r="E8">
-        <v>1.01377508939948</v>
+        <v>0.9748020528922279</v>
       </c>
       <c r="F8">
-        <v>1.025566960719816</v>
+        <v>0.9812553000808167</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029828569302794</v>
+        <v>1.045215738151851</v>
       </c>
       <c r="J8">
-        <v>1.016783300264107</v>
+        <v>0.9863927103179683</v>
       </c>
       <c r="K8">
-        <v>1.03089016905827</v>
+        <v>1.039654665141719</v>
       </c>
       <c r="L8">
-        <v>1.016570192123274</v>
+        <v>0.9863345219850315</v>
       </c>
       <c r="M8">
-        <v>1.028327954371427</v>
+        <v>0.9926953128368871</v>
       </c>
       <c r="N8">
-        <v>1.018227249177157</v>
+        <v>0.9877935011074448</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008847911892502</v>
+        <v>0.9494830563078582</v>
       </c>
       <c r="D9">
-        <v>1.027264170815833</v>
+        <v>1.02443579337862</v>
       </c>
       <c r="E9">
-        <v>1.01137420513929</v>
+        <v>0.9633374776720492</v>
       </c>
       <c r="F9">
-        <v>1.022473567584923</v>
+        <v>0.966147392114169</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02970717824176</v>
+        <v>1.043756172278189</v>
       </c>
       <c r="J9">
-        <v>1.014822582809363</v>
+        <v>0.9769551007519549</v>
       </c>
       <c r="K9">
-        <v>1.030455511838382</v>
+        <v>1.037144478123263</v>
       </c>
       <c r="L9">
-        <v>1.014619265125886</v>
+        <v>0.9770547712588243</v>
       </c>
       <c r="M9">
-        <v>1.02568091103078</v>
+        <v>0.9798146693177828</v>
       </c>
       <c r="N9">
-        <v>1.01626374727873</v>
+        <v>0.9783424890533392</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006973906831952</v>
+        <v>0.9394083682389258</v>
       </c>
       <c r="D10">
-        <v>1.026681353410436</v>
+        <v>1.021359707885053</v>
       </c>
       <c r="E10">
-        <v>1.009774841449518</v>
+        <v>0.9552474386811899</v>
       </c>
       <c r="F10">
-        <v>1.020407469441405</v>
+        <v>0.9554242696603686</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029617982363476</v>
+        <v>1.042667081978942</v>
       </c>
       <c r="J10">
-        <v>1.013512731437356</v>
+        <v>0.9702508178464024</v>
       </c>
       <c r="K10">
-        <v>1.030160580180597</v>
+        <v>1.035353726240005</v>
       </c>
       <c r="L10">
-        <v>1.013316832849115</v>
+        <v>0.9704746260059678</v>
       </c>
       <c r="M10">
-        <v>1.023909719252517</v>
+        <v>0.9706478585438209</v>
       </c>
       <c r="N10">
-        <v>1.014952035767532</v>
+        <v>0.9716286852970687</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006162273272842</v>
+        <v>0.9348793052955622</v>
       </c>
       <c r="D11">
-        <v>1.026428709113369</v>
+        <v>1.019994474886937</v>
       </c>
       <c r="E11">
-        <v>1.009082569826139</v>
+        <v>0.9516235698406196</v>
       </c>
       <c r="F11">
-        <v>1.019511878098101</v>
+        <v>0.9506050788533568</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029577405125989</v>
+        <v>1.042166449373453</v>
       </c>
       <c r="J11">
-        <v>1.012944887639038</v>
+        <v>0.9672366357565443</v>
       </c>
       <c r="K11">
-        <v>1.030031661521243</v>
+        <v>1.034548924859877</v>
       </c>
       <c r="L11">
-        <v>1.01275241572005</v>
+        <v>0.9675193370953293</v>
       </c>
       <c r="M11">
-        <v>1.023141201772315</v>
+        <v>0.966522762833241</v>
       </c>
       <c r="N11">
-        <v>1.014383385565888</v>
+        <v>0.9686102227229109</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005860766583414</v>
+        <v>0.9331699329434177</v>
       </c>
       <c r="D12">
-        <v>1.026334825467372</v>
+        <v>1.019482186881925</v>
       </c>
       <c r="E12">
-        <v>1.00882546706854</v>
+        <v>0.9502579377177347</v>
       </c>
       <c r="F12">
-        <v>1.0191790683791</v>
+        <v>0.9487865094040471</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02956203975037</v>
+        <v>1.041975982190378</v>
       </c>
       <c r="J12">
-        <v>1.012733862629327</v>
+        <v>0.9660990552576669</v>
       </c>
       <c r="K12">
-        <v>1.029983594512264</v>
+        <v>1.034245420878342</v>
       </c>
       <c r="L12">
-        <v>1.012542695918734</v>
+        <v>0.9664044685902347</v>
       </c>
       <c r="M12">
-        <v>1.022855500021797</v>
+        <v>0.9649653584940686</v>
       </c>
       <c r="N12">
-        <v>1.014172060876458</v>
+        <v>0.9674710267292431</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005925442194816</v>
+        <v>0.9335378595389185</v>
       </c>
       <c r="D13">
-        <v>1.026354965622651</v>
+        <v>1.019592311880099</v>
       </c>
       <c r="E13">
-        <v>1.008880614804119</v>
+        <v>0.950551780142419</v>
       </c>
       <c r="F13">
-        <v>1.019250463910383</v>
+        <v>0.9491779243177952</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029565348934628</v>
+        <v>1.042017044633794</v>
       </c>
       <c r="J13">
-        <v>1.01277913288184</v>
+        <v>0.9663439056831474</v>
       </c>
       <c r="K13">
-        <v>1.029993913216344</v>
+        <v>1.034310732630463</v>
       </c>
       <c r="L13">
-        <v>1.012587684730376</v>
+        <v>0.9666444082513131</v>
       </c>
       <c r="M13">
-        <v>1.022916794929088</v>
+        <v>0.9653005957429107</v>
       </c>
       <c r="N13">
-        <v>1.014217395417922</v>
+        <v>0.9677162248704126</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00613735126358</v>
+        <v>0.9347385729705491</v>
       </c>
       <c r="D14">
-        <v>1.026420949473536</v>
+        <v>1.019952235770879</v>
       </c>
       <c r="E14">
-        <v>1.009061316872573</v>
+        <v>0.9515110940945101</v>
       </c>
       <c r="F14">
-        <v>1.019484370965883</v>
+        <v>0.9504553496014968</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029576140997166</v>
+        <v>1.042150798193058</v>
       </c>
       <c r="J14">
-        <v>1.012927446349013</v>
+        <v>0.9671429776187445</v>
       </c>
       <c r="K14">
-        <v>1.030027691970798</v>
+        <v>1.034523931159918</v>
       </c>
       <c r="L14">
-        <v>1.012735081656939</v>
+        <v>0.9674275388766786</v>
       </c>
       <c r="M14">
-        <v>1.023117590491535</v>
+        <v>0.9663945513594543</v>
       </c>
       <c r="N14">
-        <v>1.014365919507231</v>
+        <v>0.9685164315798132</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006267911382106</v>
+        <v>0.9354747195129588</v>
       </c>
       <c r="D15">
-        <v>1.026461599015739</v>
+        <v>1.020173304700516</v>
       </c>
       <c r="E15">
-        <v>1.009172658327858</v>
+        <v>0.9520995216574593</v>
       </c>
       <c r="F15">
-        <v>1.019628469212649</v>
+        <v>0.9512385704744639</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029582751508626</v>
+        <v>1.042232605956264</v>
       </c>
       <c r="J15">
-        <v>1.013018813525018</v>
+        <v>0.9676328893806146</v>
       </c>
       <c r="K15">
-        <v>1.030048480240978</v>
+        <v>1.034654680222856</v>
       </c>
       <c r="L15">
-        <v>1.012825888420619</v>
+        <v>0.9679077415563848</v>
       </c>
       <c r="M15">
-        <v>1.023241275359705</v>
+        <v>0.9670651839850961</v>
       </c>
       <c r="N15">
-        <v>1.014457416435105</v>
+        <v>0.9690070390725789</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007027768271366</v>
+        <v>0.9397052668802853</v>
       </c>
       <c r="D16">
-        <v>1.026698114827572</v>
+        <v>1.021449597846458</v>
       </c>
       <c r="E16">
-        <v>1.009820790631153</v>
+        <v>0.9554852799018678</v>
       </c>
       <c r="F16">
-        <v>1.020466886431473</v>
+        <v>0.9557402239421192</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029620634198533</v>
+        <v>1.042699683184573</v>
       </c>
       <c r="J16">
-        <v>1.013550403087732</v>
+        <v>0.9704484108644489</v>
       </c>
       <c r="K16">
-        <v>1.030169110661264</v>
+        <v>1.035406506576743</v>
       </c>
       <c r="L16">
-        <v>1.013354281613189</v>
+        <v>0.970668424087585</v>
       </c>
       <c r="M16">
-        <v>1.023960689704411</v>
+        <v>0.970918199529295</v>
       </c>
       <c r="N16">
-        <v>1.014989760915973</v>
+        <v>0.9718265589198647</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007504356738725</v>
+        <v>0.9423129864312595</v>
       </c>
       <c r="D17">
-        <v>1.026846401148775</v>
+        <v>1.022241152759162</v>
       </c>
       <c r="E17">
-        <v>1.010227416135606</v>
+        <v>0.9575757747207756</v>
       </c>
       <c r="F17">
-        <v>1.020992544728224</v>
+        <v>0.9585154797935699</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02964387400521</v>
+        <v>1.042984792799494</v>
       </c>
       <c r="J17">
-        <v>1.013883674552005</v>
+        <v>0.9721838870706535</v>
       </c>
       <c r="K17">
-        <v>1.030244455419853</v>
+        <v>1.035870137067215</v>
       </c>
       <c r="L17">
-        <v>1.013685605566608</v>
+        <v>0.972370920517848</v>
       </c>
       <c r="M17">
-        <v>1.024411534399127</v>
+        <v>0.9732922005173552</v>
       </c>
       <c r="N17">
-        <v>1.015323505663952</v>
+        <v>0.9735644997013445</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007782325871752</v>
+        <v>0.9438180938915234</v>
       </c>
       <c r="D18">
-        <v>1.026932866863317</v>
+        <v>1.022699656567971</v>
       </c>
       <c r="E18">
-        <v>1.010464619452835</v>
+        <v>0.9587835695851991</v>
       </c>
       <c r="F18">
-        <v>1.02129906019447</v>
+        <v>0.9601174078739166</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029657240744564</v>
+        <v>1.043148300165976</v>
       </c>
       <c r="J18">
-        <v>1.014078001693758</v>
+        <v>0.9731855262967475</v>
       </c>
       <c r="K18">
-        <v>1.030288285796009</v>
+        <v>1.036137739565898</v>
       </c>
       <c r="L18">
-        <v>1.013878817406158</v>
+        <v>0.9733538144921292</v>
       </c>
       <c r="M18">
-        <v>1.024674352249912</v>
+        <v>0.9746620098047243</v>
       </c>
       <c r="N18">
-        <v>1.015518108772535</v>
+        <v>0.974567561370029</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007877103401476</v>
+        <v>0.9443286528407944</v>
       </c>
       <c r="D19">
-        <v>1.026962344769694</v>
+        <v>1.022855457548769</v>
       </c>
       <c r="E19">
-        <v>1.010545504040892</v>
+        <v>0.9591934769896457</v>
       </c>
       <c r="F19">
-        <v>1.021403558523707</v>
+        <v>0.9606608281757513</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029661766443858</v>
+        <v>1.043203582522981</v>
       </c>
       <c r="J19">
-        <v>1.0141442513515</v>
+        <v>0.9735252921354518</v>
       </c>
       <c r="K19">
-        <v>1.030303210951503</v>
+        <v>1.036228510169859</v>
       </c>
       <c r="L19">
-        <v>1.013944690270353</v>
+        <v>0.9736872701914281</v>
       </c>
       <c r="M19">
-        <v>1.024763940607988</v>
+        <v>0.9751266014093202</v>
       </c>
       <c r="N19">
-        <v>1.015584452512391</v>
+        <v>0.974907809715196</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007453225074932</v>
+        <v>0.9420348646847877</v>
       </c>
       <c r="D20">
-        <v>1.02683049422893</v>
+        <v>1.02215655832903</v>
       </c>
       <c r="E20">
-        <v>1.010183786439702</v>
+        <v>0.9573526893861277</v>
       </c>
       <c r="F20">
-        <v>1.020936156122776</v>
+        <v>0.9582194763091345</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029641400102964</v>
+        <v>1.042954493057131</v>
       </c>
       <c r="J20">
-        <v>1.013847924360864</v>
+        <v>0.9719987956825261</v>
       </c>
       <c r="K20">
-        <v>1.030236383728821</v>
+        <v>1.035820687170619</v>
       </c>
       <c r="L20">
-        <v>1.013650062187632</v>
+        <v>0.9721893162917142</v>
       </c>
       <c r="M20">
-        <v>1.024363178797766</v>
+        <v>0.9730390464800173</v>
       </c>
       <c r="N20">
-        <v>1.015287704703439</v>
+        <v>0.9733791454622154</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006074950174649</v>
+        <v>0.934385757718183</v>
       </c>
       <c r="D21">
-        <v>1.026401519971977</v>
+        <v>1.019846391678738</v>
       </c>
       <c r="E21">
-        <v>1.009008103590018</v>
+        <v>0.951229152246209</v>
       </c>
       <c r="F21">
-        <v>1.019415495259401</v>
+        <v>0.9500799843283663</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029572971092956</v>
+        <v>1.042111536844369</v>
       </c>
       <c r="J21">
-        <v>1.012883774575872</v>
+        <v>0.9669081780793145</v>
       </c>
       <c r="K21">
-        <v>1.030017749953829</v>
+        <v>1.034461276787446</v>
       </c>
       <c r="L21">
-        <v>1.012691678886274</v>
+        <v>0.9671974100122998</v>
       </c>
       <c r="M21">
-        <v>1.0230584678547</v>
+        <v>0.9660731182487555</v>
       </c>
       <c r="N21">
-        <v>1.014322185715162</v>
+        <v>0.9682812985981053</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00520819973406</v>
+        <v>0.9294186263465297</v>
       </c>
       <c r="D22">
-        <v>1.026131574537345</v>
+        <v>1.01836382826582</v>
       </c>
       <c r="E22">
-        <v>1.008269122599374</v>
+        <v>0.947265027780446</v>
       </c>
       <c r="F22">
-        <v>1.018458541962556</v>
+        <v>0.9447962371680402</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02952825104067</v>
+        <v>1.041555360293718</v>
       </c>
       <c r="J22">
-        <v>1.012276981102651</v>
+        <v>0.9636027493308418</v>
       </c>
       <c r="K22">
-        <v>1.029879240253532</v>
+        <v>1.033580065885348</v>
       </c>
       <c r="L22">
-        <v>1.012088698541257</v>
+        <v>0.9639589220202297</v>
       </c>
       <c r="M22">
-        <v>1.022236753526111</v>
+        <v>0.9615467843697106</v>
       </c>
       <c r="N22">
-        <v>1.013714530525609</v>
+        <v>0.9649711757616717</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005667698154082</v>
+        <v>0.9320674975919008</v>
       </c>
       <c r="D23">
-        <v>1.026274699128386</v>
+        <v>1.019152678363334</v>
       </c>
       <c r="E23">
-        <v>1.008660850402709</v>
+        <v>0.949377803815203</v>
       </c>
       <c r="F23">
-        <v>1.018965923052155</v>
+        <v>0.9476137472994803</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029552118580874</v>
+        <v>1.041852733869583</v>
       </c>
       <c r="J23">
-        <v>1.012598710785068</v>
+        <v>0.9653654114823523</v>
       </c>
       <c r="K23">
-        <v>1.029952765645281</v>
+        <v>1.034049777451768</v>
       </c>
       <c r="L23">
-        <v>1.012408388965879</v>
+        <v>0.9656856118347404</v>
       </c>
       <c r="M23">
-        <v>1.02267249260813</v>
+        <v>0.9639608089958225</v>
       </c>
       <c r="N23">
-        <v>1.014036717101078</v>
+        <v>0.9667363410956175</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00747632932486</v>
+        <v>0.9421605850117863</v>
       </c>
       <c r="D24">
-        <v>1.026837681965616</v>
+        <v>1.022194792776963</v>
       </c>
       <c r="E24">
-        <v>1.010203500742382</v>
+        <v>0.9574535276516173</v>
       </c>
       <c r="F24">
-        <v>1.020961635990909</v>
+        <v>0.9583532794047911</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029642518535893</v>
+        <v>1.042968192824665</v>
       </c>
       <c r="J24">
-        <v>1.013864078532558</v>
+        <v>0.9720824632837173</v>
       </c>
       <c r="K24">
-        <v>1.030240031340096</v>
+        <v>1.035843040170754</v>
       </c>
       <c r="L24">
-        <v>1.013666122846035</v>
+        <v>0.9722714066810628</v>
       </c>
       <c r="M24">
-        <v>1.024385029082883</v>
+        <v>0.9731534818249526</v>
       </c>
       <c r="N24">
-        <v>1.01530388181591</v>
+        <v>0.9734629318809971</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009574495204962</v>
+        <v>0.9532536157757513</v>
       </c>
       <c r="D25">
-        <v>1.027489918915731</v>
+        <v>1.02560011274041</v>
       </c>
       <c r="E25">
-        <v>1.011994668757404</v>
+        <v>0.9663755214696256</v>
       </c>
       <c r="F25">
-        <v>1.023273947664625</v>
+        <v>0.9701612291462589</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029740020505447</v>
+        <v>1.044153485627624</v>
       </c>
       <c r="J25">
-        <v>1.015329945290461</v>
+        <v>0.9794635179422166</v>
       </c>
       <c r="K25">
-        <v>1.030568795504558</v>
+        <v>1.037813605442289</v>
       </c>
       <c r="L25">
-        <v>1.015123940135079</v>
+        <v>0.9795192499426368</v>
       </c>
       <c r="M25">
-        <v>1.026366370212686</v>
+        <v>0.983241116180869</v>
       </c>
       <c r="N25">
-        <v>1.016771830272745</v>
+        <v>0.9808544684837303</v>
       </c>
     </row>
   </sheetData>
